--- a/DOC/开发计划/SAAS项目开发计划.xlsx
+++ b/DOC/开发计划/SAAS项目开发计划.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>功能模块</t>
   </si>
@@ -43,6 +43,10 @@
   </si>
   <si>
     <t>产品原型设计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -50,7 +54,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,6 +83,14 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -124,7 +136,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -136,6 +148,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -438,60 +453,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="27.625" customWidth="1"/>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="25.625" customWidth="1"/>
-    <col min="4" max="4" width="13.875" customWidth="1"/>
-    <col min="5" max="5" width="17.75" customWidth="1"/>
-    <col min="6" max="6" width="19.25" customWidth="1"/>
-    <col min="7" max="7" width="12.75" customWidth="1"/>
+    <col min="1" max="1" width="14.125" customWidth="1"/>
+    <col min="2" max="2" width="27.625" customWidth="1"/>
+    <col min="3" max="3" width="21.75" customWidth="1"/>
+    <col min="4" max="4" width="25.625" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
+    <col min="6" max="6" width="17.75" customWidth="1"/>
+    <col min="7" max="7" width="19.25" customWidth="1"/>
+    <col min="8" max="8" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25.5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1">
+    <row r="2" spans="1:8" ht="30" customHeight="1">
       <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="3"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1">
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="30" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -499,8 +519,9 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1">
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" ht="30" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -508,8 +529,9 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1">
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" ht="30" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -517,8 +539,9 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1">
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" ht="30" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -526,8 +549,9 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1">
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" ht="30" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -535,8 +559,9 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1">
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" ht="30" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -544,8 +569,9 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1">
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" ht="30" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -553,8 +579,9 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1">
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" ht="30" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -562,8 +589,9 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1">
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" ht="30" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -571,8 +599,9 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1">
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" ht="30" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -580,8 +609,9 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1">
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" ht="30" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -589,8 +619,9 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1">
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" ht="30" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -598,8 +629,9 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1">
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" ht="30" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -607,8 +639,9 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1">
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" ht="30" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -616,8 +649,9 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1">
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" ht="30" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -625,8 +659,9 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1">
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" ht="30" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -634,8 +669,9 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1">
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" ht="30" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -643,6 +679,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -660,5 +697,6 @@
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DOC/开发计划/SAAS项目开发计划.xlsx
+++ b/DOC/开发计划/SAAS项目开发计划.xlsx
@@ -7,15 +7,16 @@
     <workbookView xWindow="0" yWindow="90" windowWidth="20730" windowHeight="11670"/>
   </bookViews>
   <sheets>
-    <sheet name="APP开发计划" sheetId="15" r:id="rId1"/>
-    <sheet name="PC开发计划" sheetId="16" r:id="rId2"/>
+    <sheet name="原型开发计划" sheetId="15" r:id="rId1"/>
+    <sheet name="界面开发计划" sheetId="16" r:id="rId2"/>
+    <sheet name="接口联调及测试" sheetId="17" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>功能模块</t>
   </si>
@@ -38,15 +39,99 @@
     <t>状态</t>
   </si>
   <si>
+    <t>产品原型设计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>首页</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>产品原型设计</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
+    <t>扫一扫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡券</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预约</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电开单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在报价</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>待施工</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>待完工</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>待结算</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工单管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接车单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>报价单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗车开单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合开单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售开单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>理赔开单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查车开单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预检开单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据-维修项目数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据-EPC云服务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡政</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -136,7 +221,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -151,6 +236,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -453,27 +544,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.125" customWidth="1"/>
-    <col min="2" max="2" width="27.625" customWidth="1"/>
-    <col min="3" max="3" width="21.75" customWidth="1"/>
-    <col min="4" max="4" width="25.625" customWidth="1"/>
+    <col min="1" max="1" width="14.375" customWidth="1"/>
+    <col min="2" max="2" width="27.25" customWidth="1"/>
+    <col min="3" max="3" width="26.25" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
     <col min="5" max="5" width="13.875" customWidth="1"/>
     <col min="6" max="6" width="17.75" customWidth="1"/>
     <col min="7" max="7" width="19.25" customWidth="1"/>
     <col min="8" max="8" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="18.75" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -498,22 +589,26 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>8</v>
+      <c r="A2" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="E2" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="30" customHeight="1">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -522,8 +617,10 @@
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -532,8 +629,10 @@
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -542,8 +641,10 @@
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -552,8 +653,10 @@
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -562,8 +665,10 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" ht="30" customHeight="1">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -572,8 +677,10 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" ht="30" customHeight="1">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -582,8 +689,10 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" ht="30" customHeight="1">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -592,8 +701,10 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" ht="30" customHeight="1">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -602,8 +713,10 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" ht="30" customHeight="1">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -612,8 +725,10 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" ht="30" customHeight="1">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -622,8 +737,10 @@
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" ht="30" customHeight="1">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -632,8 +749,10 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8" ht="30" customHeight="1">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -642,8 +761,10 @@
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8" ht="30" customHeight="1">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -652,8 +773,10 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="30" customHeight="1">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -662,8 +785,10 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8" ht="30" customHeight="1">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -672,8 +797,10 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="30" customHeight="1">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -681,7 +808,46 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
+    <row r="20" spans="1:8" ht="30" customHeight="1">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" ht="30" customHeight="1">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" ht="30" customHeight="1">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A22"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -691,7 +857,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
@@ -699,4 +867,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DOC/开发计划/SAAS项目开发计划.xlsx
+++ b/DOC/开发计划/SAAS项目开发计划.xlsx
@@ -8,15 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="原型开发计划" sheetId="15" r:id="rId1"/>
-    <sheet name="界面开发计划" sheetId="16" r:id="rId2"/>
-    <sheet name="接口联调及测试" sheetId="17" r:id="rId3"/>
+    <sheet name="界面开发计划" sheetId="18" r:id="rId2"/>
+    <sheet name="接口联调及测试" sheetId="19" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="78">
   <si>
     <t>功能模块</t>
   </si>
@@ -39,10 +39,6 @@
     <t>状态</t>
   </si>
   <si>
-    <t>产品原型设计</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -51,79 +47,262 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>卡券</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预约</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电开单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在报价</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>待施工</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>待完工</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>待结算</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工单管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接车单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>报价单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗车开单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合开单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售开单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>理赔开单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查车开单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预检开单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡政</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPC云服务</t>
+  </si>
+  <si>
+    <t>维修项目数据-数据展现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修项目数据-图形展现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒中心</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工单查询</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的-我的资料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的-联系我们</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>我的-参数设置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的-帮助指导说明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的-意见反馈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的-设置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户详情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆详情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工单详情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>套餐添加界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工时添加界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>配件添加界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>派工界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>派工人员选择</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预检单详情页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查车单详情页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫一扫-车牌号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫一扫-VIN码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫一扫-行驶证</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算打印界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查车打印界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李平</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端框架</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端框架搭建</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>样式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>样式/图片/公共组件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共组件</t>
+  </si>
+  <si>
+    <t>首页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫一扫-车牌号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>整体测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>扫一扫</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>卡券</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>预约</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>闪电开单</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>在报价</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>待施工</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>待完工</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>待结算</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>工单管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>接车单</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>报价单</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>洗车开单</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>综合开单</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售开单</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>理赔开单</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>查车开单</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>预检开单</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据-维修项目数据</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据-EPC云服务</t>
+    <t>工单查询</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -131,7 +310,43 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>胡政</t>
+    <t>李平/丁龄勃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁龄勃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2018/11/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>31</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品原型设计
+（10/22-10/31）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP界面开发
+（10/24-11/19）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口联调及测试
+（11/14-11/31）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -192,7 +407,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -215,13 +430,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -242,6 +494,48 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -544,19 +838,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="14.375" customWidth="1"/>
     <col min="2" max="2" width="27.25" customWidth="1"/>
-    <col min="3" max="3" width="26.25" customWidth="1"/>
-    <col min="4" max="4" width="18.5" customWidth="1"/>
-    <col min="5" max="5" width="13.875" customWidth="1"/>
+    <col min="3" max="3" width="21.75" customWidth="1"/>
+    <col min="4" max="4" width="18.875" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="17.75" customWidth="1"/>
     <col min="7" max="7" width="19.25" customWidth="1"/>
     <col min="8" max="8" width="12.75" customWidth="1"/>
@@ -564,7 +858,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -589,264 +883,746 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1">
-      <c r="A2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="2"/>
+      <c r="A2" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="F2" s="10">
+        <v>43395</v>
+      </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="30" customHeight="1">
-      <c r="A3" s="5"/>
-      <c r="B3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="10">
+        <v>43395</v>
+      </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1">
-      <c r="A4" s="5"/>
-      <c r="B4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="10">
+        <v>43395</v>
+      </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1">
-      <c r="A5" s="5"/>
-      <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="E5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="10">
+        <v>43396</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1">
-      <c r="A6" s="5"/>
-      <c r="B6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="2"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="E6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="10">
+        <v>43396</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1">
-      <c r="A7" s="5"/>
-      <c r="B7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="2"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="E7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="10">
+        <v>43395</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" ht="30" customHeight="1">
-      <c r="A8" s="5"/>
-      <c r="B8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="2"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="E8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="10">
+        <v>43395</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" ht="30" customHeight="1">
-      <c r="A9" s="5"/>
-      <c r="B9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="2"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="E9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="10">
+        <v>43395</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" ht="30" customHeight="1">
-      <c r="A10" s="5"/>
-      <c r="B10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="2"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="E10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="10">
+        <v>43395</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" ht="30" customHeight="1">
-      <c r="A11" s="5"/>
-      <c r="B11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="2"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="E11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="10">
+        <v>43395</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" ht="30" customHeight="1">
-      <c r="A12" s="5"/>
-      <c r="B12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="2"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="E12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="10">
+        <v>43396</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" ht="30" customHeight="1">
-      <c r="A13" s="5"/>
-      <c r="B13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="2"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="E13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="10">
+        <v>43396</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" ht="30" customHeight="1">
-      <c r="A14" s="5"/>
-      <c r="B14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="2"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="E14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="10">
+        <v>43396</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8" ht="30" customHeight="1">
-      <c r="A15" s="5"/>
-      <c r="B15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="2"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="E15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="10">
+        <v>43396</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8" ht="30" customHeight="1">
-      <c r="A16" s="5"/>
-      <c r="B16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="2"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="E16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="10">
+        <v>43396</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="30" customHeight="1">
-      <c r="A17" s="5"/>
-      <c r="B17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="2"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="E17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="10">
+        <v>43396</v>
+      </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8" ht="30" customHeight="1">
-      <c r="A18" s="5"/>
-      <c r="B18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="2"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="E18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="10">
+        <v>43396</v>
+      </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="30" customHeight="1">
-      <c r="A19" s="5"/>
-      <c r="B19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="2"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="E19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="10">
+        <v>43396</v>
+      </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" ht="30" customHeight="1">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="2"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="E20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="10">
+        <v>43396</v>
+      </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8" ht="30" customHeight="1">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="2"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="E21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="10">
+        <v>43397</v>
+      </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" ht="30" customHeight="1">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="2"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="E22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="10">
+        <v>43397</v>
+      </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
+    <row r="23" spans="1:8" ht="30" customHeight="1">
+      <c r="A23" s="13"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="10">
+        <v>43396</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" ht="30" customHeight="1">
+      <c r="A24" s="13"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="10">
+        <v>43397</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" ht="30" customHeight="1">
+      <c r="A25" s="13"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="10">
+        <v>43397</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" ht="30" customHeight="1">
+      <c r="A26" s="13"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="10">
+        <v>43397</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8" ht="30" customHeight="1">
+      <c r="A27" s="13"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="10">
+        <v>43398</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" ht="30" customHeight="1">
+      <c r="A28" s="13"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="10">
+        <v>43398</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:8" ht="30" customHeight="1">
+      <c r="A29" s="13"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" s="10">
+        <v>43398</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" ht="30" customHeight="1">
+      <c r="A30" s="13"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="10">
+        <v>43398</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="1:8" ht="30" customHeight="1">
+      <c r="A31" s="13"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="10">
+        <v>43399</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="1:8" ht="30" customHeight="1">
+      <c r="A32" s="13"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" s="10">
+        <v>43399</v>
+      </c>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="1:8" ht="30" customHeight="1">
+      <c r="A33" s="13"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" s="10">
+        <v>43399</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="1:8" ht="30" customHeight="1">
+      <c r="A34" s="13"/>
+      <c r="B34" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="10">
+        <v>43400</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+    </row>
+    <row r="35" spans="1:8" ht="30" customHeight="1">
+      <c r="A35" s="13"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" s="10">
+        <v>43400</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="1:8" ht="30" customHeight="1">
+      <c r="A36" s="13"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" s="10">
+        <v>43400</v>
+      </c>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+    </row>
+    <row r="37" spans="1:8" ht="30" customHeight="1">
+      <c r="A37" s="13"/>
+      <c r="B37" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" s="10">
+        <v>43402</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="1:8" ht="30" customHeight="1">
+      <c r="A38" s="13"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" s="10">
+        <v>43402</v>
+      </c>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" spans="1:8" ht="30" customHeight="1">
+      <c r="A39" s="13"/>
+      <c r="B39" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" s="10">
+        <v>43403</v>
+      </c>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" spans="1:8" ht="30" customHeight="1">
+      <c r="A40" s="13"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" s="10">
+        <v>43403</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+    </row>
+    <row r="41" spans="1:8" ht="30" customHeight="1">
+      <c r="A41" s="13"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" s="10">
+        <v>43403</v>
+      </c>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+    </row>
+    <row r="42" spans="1:8" ht="30" customHeight="1">
+      <c r="A42" s="13"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" s="10">
+        <v>43403</v>
+      </c>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+    </row>
+    <row r="43" spans="1:8" ht="30" customHeight="1">
+      <c r="A43" s="13"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" s="10">
+        <v>43404</v>
+      </c>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+    </row>
+    <row r="44" spans="1:8" ht="30" customHeight="1">
+      <c r="A44" s="13"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" s="10">
+        <v>43404</v>
+      </c>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+    </row>
+    <row r="45" spans="1:8" ht="30" customHeight="1">
+      <c r="A45" s="13"/>
+      <c r="B45" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" s="10">
+        <v>43395</v>
+      </c>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+    </row>
+    <row r="46" spans="1:8" ht="30" customHeight="1">
+      <c r="A46" s="13"/>
+      <c r="B46" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" s="10">
+        <v>43395</v>
+      </c>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A22"/>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A46"/>
+    <mergeCell ref="B2:B33"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B44"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -855,31 +1631,1959 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.375" customWidth="1"/>
+    <col min="2" max="2" width="27.25" customWidth="1"/>
+    <col min="3" max="3" width="21.75" customWidth="1"/>
+    <col min="4" max="4" width="18.875" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="17.75" customWidth="1"/>
+    <col min="7" max="7" width="19.25" customWidth="1"/>
+    <col min="8" max="8" width="12.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="30" customHeight="1">
+      <c r="A2" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="10">
+        <v>43397</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="30" customHeight="1">
+      <c r="A3" s="15"/>
+      <c r="B3" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="10">
+        <v>43399</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" ht="30" customHeight="1">
+      <c r="A4" s="15"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="10">
+        <v>43399</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" ht="30" customHeight="1">
+      <c r="A5" s="15"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="10">
+        <v>43400</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" ht="30" customHeight="1">
+      <c r="A6" s="15"/>
+      <c r="B6" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="10">
+        <v>43402</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" ht="30" customHeight="1">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="10">
+        <v>43402</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" ht="30" customHeight="1">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="10">
+        <v>43402</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" ht="30" customHeight="1">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="10">
+        <v>43403</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" ht="30" customHeight="1">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="10">
+        <v>43404</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" ht="30" customHeight="1">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="10">
+        <v>43405</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" ht="30" customHeight="1">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="10">
+        <v>43406</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" ht="30" customHeight="1">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="10">
+        <v>43406</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" ht="30" customHeight="1">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="10">
+        <v>43406</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" ht="30" customHeight="1">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="10">
+        <v>43406</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" ht="30" customHeight="1">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="10">
+        <v>43406</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" ht="30" customHeight="1">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="10">
+        <v>43407</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" ht="30" customHeight="1">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="10">
+        <v>43407</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" ht="30" customHeight="1">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="10">
+        <v>43409</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" ht="30" customHeight="1">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="10">
+        <v>43409</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" ht="30" customHeight="1">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="10">
+        <v>43409</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" ht="30" customHeight="1">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="10">
+        <v>43409</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" ht="30" customHeight="1">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="10">
+        <v>43410</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" ht="30" customHeight="1">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="10">
+        <v>43410</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" ht="30" customHeight="1">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="10">
+        <v>43411</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" ht="30" customHeight="1">
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" s="10">
+        <v>43411</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8" ht="30" customHeight="1">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="10">
+        <v>43412</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" ht="30" customHeight="1">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" s="10">
+        <v>43412</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:8" ht="30" customHeight="1">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" s="10">
+        <v>43412</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" ht="30" customHeight="1">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" s="10">
+        <v>43412</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="1:8" ht="30" customHeight="1">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" s="10">
+        <v>43413</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="1:8" ht="30" customHeight="1">
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" s="10">
+        <v>43413</v>
+      </c>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="1:8" ht="30" customHeight="1">
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" s="10">
+        <v>43413</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="1:8" ht="30" customHeight="1">
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F34" s="10">
+        <v>43413</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+    </row>
+    <row r="35" spans="1:8" ht="30" customHeight="1">
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F35" s="10">
+        <v>43414</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="1:8" ht="30" customHeight="1">
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F36" s="10">
+        <v>43414</v>
+      </c>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+    </row>
+    <row r="37" spans="1:8" ht="30" customHeight="1">
+      <c r="A37" s="15"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F37" s="10">
+        <v>43414</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="1:8" ht="30" customHeight="1">
+      <c r="A38" s="15"/>
+      <c r="B38" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F38" s="10">
+        <v>43416</v>
+      </c>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" spans="1:8" ht="30" customHeight="1">
+      <c r="A39" s="15"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F39" s="10">
+        <v>43418</v>
+      </c>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" spans="1:8" ht="30" customHeight="1">
+      <c r="A40" s="15"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F40" s="10">
+        <v>43419</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+    </row>
+    <row r="41" spans="1:8" ht="30" customHeight="1">
+      <c r="A41" s="15"/>
+      <c r="B41" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F41" s="10">
+        <v>43420</v>
+      </c>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+    </row>
+    <row r="42" spans="1:8" ht="30" customHeight="1">
+      <c r="A42" s="15"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F42" s="10">
+        <v>43420</v>
+      </c>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+    </row>
+    <row r="43" spans="1:8" ht="30" customHeight="1">
+      <c r="A43" s="15"/>
+      <c r="B43" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F43" s="10">
+        <v>43421</v>
+      </c>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+    </row>
+    <row r="44" spans="1:8" ht="30" customHeight="1">
+      <c r="A44" s="15"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F44" s="10">
+        <v>43421</v>
+      </c>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+    </row>
+    <row r="45" spans="1:8" ht="30" customHeight="1">
+      <c r="A45" s="15"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F45" s="10">
+        <v>43421</v>
+      </c>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+    </row>
+    <row r="46" spans="1:8" ht="30" customHeight="1">
+      <c r="A46" s="15"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F46" s="10">
+        <v>43423</v>
+      </c>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+    </row>
+    <row r="47" spans="1:8" ht="30" customHeight="1">
+      <c r="A47" s="15"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F47" s="10">
+        <v>43423</v>
+      </c>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+    </row>
+    <row r="48" spans="1:8" ht="30" customHeight="1">
+      <c r="A48" s="15"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F48" s="10">
+        <v>43423</v>
+      </c>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+    </row>
+    <row r="49" spans="1:8" ht="30" customHeight="1">
+      <c r="A49" s="15"/>
+      <c r="B49" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F49" s="10">
+        <v>43402</v>
+      </c>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+    </row>
+    <row r="50" spans="1:8" ht="30" customHeight="1">
+      <c r="A50" s="16"/>
+      <c r="B50" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F50" s="10">
+        <v>43402</v>
+      </c>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:A50"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B48"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B37"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.375" customWidth="1"/>
+    <col min="2" max="2" width="27.25" customWidth="1"/>
+    <col min="3" max="3" width="21.75" customWidth="1"/>
+    <col min="4" max="4" width="18.875" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="17.75" customWidth="1"/>
+    <col min="7" max="7" width="19.25" customWidth="1"/>
+    <col min="8" max="8" width="12.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="30" customHeight="1">
+      <c r="A2" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="10">
+        <v>43418</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="30" customHeight="1">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="10">
+        <v>43418</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" ht="30" customHeight="1">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="10">
+        <v>43418</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" ht="30" customHeight="1">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="10">
+        <v>43418</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" ht="30" customHeight="1">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="10">
+        <v>43418</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" ht="30" customHeight="1">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="10">
+        <v>43419</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" ht="30" customHeight="1">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="10">
+        <v>43419</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" ht="30" customHeight="1">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="10">
+        <v>43419</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" ht="30" customHeight="1">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="10">
+        <v>43419</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" ht="30" customHeight="1">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="10">
+        <v>43419</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" ht="30" customHeight="1">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="10">
+        <v>43419</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" ht="30" customHeight="1">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="10">
+        <v>43420</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" ht="30" customHeight="1">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="10">
+        <v>43420</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" ht="30" customHeight="1">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="10">
+        <v>43422</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" ht="30" customHeight="1">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="10">
+        <v>43420</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" ht="30" customHeight="1">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="10">
+        <v>43421</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" ht="30" customHeight="1">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="10">
+        <v>43422</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" ht="30" customHeight="1">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="10">
+        <v>43423</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" ht="30" customHeight="1">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="10">
+        <v>43423</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" ht="30" customHeight="1">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="10">
+        <v>43421</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" ht="30" customHeight="1">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="10">
+        <v>43421</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" ht="30" customHeight="1">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="10">
+        <v>43421</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" ht="30" customHeight="1">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" s="10">
+        <v>43421</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" ht="30" customHeight="1">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" s="10">
+        <v>43421</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" ht="30" customHeight="1">
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26" s="10">
+        <v>43421</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8" ht="30" customHeight="1">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F27" s="10">
+        <v>43423</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" ht="30" customHeight="1">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" s="10">
+        <v>43423</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:8" ht="30" customHeight="1">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F29" s="10">
+        <v>43424</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" ht="30" customHeight="1">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F30" s="10">
+        <v>43424</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="1:8" ht="30" customHeight="1">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F31" s="10">
+        <v>43424</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="1:8" ht="30" customHeight="1">
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F32" s="10">
+        <v>43424</v>
+      </c>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="1:8" ht="30" customHeight="1">
+      <c r="A33" s="15"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F33" s="10">
+        <v>43424</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="1:8" ht="30" customHeight="1">
+      <c r="A34" s="15"/>
+      <c r="B34" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F34" s="10">
+        <v>43425</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+    </row>
+    <row r="35" spans="1:8" ht="30" customHeight="1">
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F35" s="10">
+        <v>43425</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="1:8" ht="30" customHeight="1">
+      <c r="A36" s="15"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F36" s="10">
+        <v>43425</v>
+      </c>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+    </row>
+    <row r="37" spans="1:8" ht="30" customHeight="1">
+      <c r="A37" s="15"/>
+      <c r="B37" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" s="10">
+        <v>43426</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="1:8" ht="30" customHeight="1">
+      <c r="A38" s="15"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" s="10">
+        <v>43426</v>
+      </c>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" spans="1:8" ht="30" customHeight="1">
+      <c r="A39" s="15"/>
+      <c r="B39" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F39" s="10">
+        <v>43426</v>
+      </c>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" spans="1:8" ht="30" customHeight="1">
+      <c r="A40" s="15"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F40" s="10">
+        <v>43426</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+    </row>
+    <row r="41" spans="1:8" ht="30" customHeight="1">
+      <c r="A41" s="15"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F41" s="10">
+        <v>43426</v>
+      </c>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+    </row>
+    <row r="42" spans="1:8" ht="30" customHeight="1">
+      <c r="A42" s="15"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F42" s="10">
+        <v>43426</v>
+      </c>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+    </row>
+    <row r="43" spans="1:8" ht="30" customHeight="1">
+      <c r="A43" s="15"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F43" s="10">
+        <v>43426</v>
+      </c>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+    </row>
+    <row r="44" spans="1:8" ht="30" customHeight="1">
+      <c r="A44" s="15"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F44" s="10">
+        <v>43426</v>
+      </c>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+    </row>
+    <row r="45" spans="1:8" ht="30" customHeight="1">
+      <c r="A45" s="15"/>
+      <c r="B45" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F45" s="10">
+        <v>43418</v>
+      </c>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+    </row>
+    <row r="46" spans="1:8" ht="30" customHeight="1">
+      <c r="A46" s="15"/>
+      <c r="B46" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F46" s="10">
+        <v>43418</v>
+      </c>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+    </row>
+    <row r="47" spans="1:8" ht="30" customHeight="1">
+      <c r="A47" s="15"/>
+      <c r="B47" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+    </row>
+    <row r="48" spans="1:8" ht="30" customHeight="1">
+      <c r="A48" s="15"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+    </row>
+    <row r="49" spans="1:8" ht="30" customHeight="1">
+      <c r="A49" s="15"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+    </row>
+    <row r="50" spans="1:8" ht="30" customHeight="1">
+      <c r="A50" s="15"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+    </row>
+    <row r="51" spans="1:8" ht="30" customHeight="1">
+      <c r="A51" s="15"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+    </row>
+    <row r="52" spans="1:8" ht="30" customHeight="1">
+      <c r="A52" s="15"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+    </row>
+    <row r="53" spans="1:8" ht="30" customHeight="1">
+      <c r="A53" s="15"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+    </row>
+    <row r="54" spans="1:8" ht="30" customHeight="1">
+      <c r="A54" s="15"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+    </row>
+    <row r="55" spans="1:8" ht="30" customHeight="1">
+      <c r="A55" s="15"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+    </row>
+    <row r="56" spans="1:8" ht="30" customHeight="1">
+      <c r="A56" s="15"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+    </row>
+    <row r="57" spans="1:8" ht="30" customHeight="1">
+      <c r="A57" s="15"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+    </row>
+    <row r="58" spans="1:8" ht="30" customHeight="1">
+      <c r="A58" s="15"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+    </row>
+    <row r="59" spans="1:8" ht="30" customHeight="1">
+      <c r="A59" s="15"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+    </row>
+    <row r="60" spans="1:8" ht="30" customHeight="1">
+      <c r="A60" s="15"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+    </row>
+    <row r="61" spans="1:8" ht="30" customHeight="1">
+      <c r="A61" s="15"/>
+      <c r="B61" s="19"/>
+      <c r="C61" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+    </row>
+    <row r="62" spans="1:8" ht="30" customHeight="1">
+      <c r="A62" s="15"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F62" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+    </row>
+    <row r="63" spans="1:8" ht="30" customHeight="1">
+      <c r="A63" s="15"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+    </row>
+    <row r="64" spans="1:8" ht="30" customHeight="1">
+      <c r="A64" s="16"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+    </row>
+    <row r="65" spans="3:3">
+      <c r="C65" s="9"/>
+    </row>
+    <row r="66" spans="3:3">
+      <c r="C66" s="9"/>
+    </row>
+    <row r="67" spans="3:3">
+      <c r="C67" s="9"/>
+    </row>
+    <row r="68" spans="3:3">
+      <c r="C68" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B2:B33"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B44"/>
+    <mergeCell ref="A2:A64"/>
+    <mergeCell ref="B47:B64"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DOC/开发计划/SAAS项目开发计划.xlsx
+++ b/DOC/开发计划/SAAS项目开发计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="20730" windowHeight="11670"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="20730" windowHeight="11670" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="原型开发计划" sheetId="15" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="78">
   <si>
     <t>功能模块</t>
   </si>
@@ -838,10 +838,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1401,94 +1401,92 @@
     <row r="34" spans="1:8" ht="30" customHeight="1">
       <c r="A34" s="13"/>
       <c r="B34" s="14" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="3" t="s">
         <v>25</v>
       </c>
       <c r="F34" s="10">
-        <v>43400</v>
+        <v>43402</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
     </row>
     <row r="35" spans="1:8" ht="30" customHeight="1">
       <c r="A35" s="13"/>
-      <c r="B35" s="15"/>
+      <c r="B35" s="16"/>
       <c r="C35" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="3" t="s">
         <v>25</v>
       </c>
       <c r="F35" s="10">
-        <v>43400</v>
+        <v>43402</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
     </row>
     <row r="36" spans="1:8" ht="30" customHeight="1">
       <c r="A36" s="13"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="2" t="s">
-        <v>27</v>
+      <c r="B36" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="3" t="s">
         <v>25</v>
       </c>
       <c r="F36" s="10">
-        <v>43400</v>
+        <v>43403</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
     </row>
     <row r="37" spans="1:8" ht="30" customHeight="1">
       <c r="A37" s="13"/>
-      <c r="B37" s="14" t="s">
-        <v>31</v>
-      </c>
+      <c r="B37" s="15"/>
       <c r="C37" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="3" t="s">
         <v>25</v>
       </c>
       <c r="F37" s="10">
-        <v>43402</v>
+        <v>43403</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
     </row>
     <row r="38" spans="1:8" ht="30" customHeight="1">
       <c r="A38" s="13"/>
-      <c r="B38" s="16"/>
+      <c r="B38" s="15"/>
       <c r="C38" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="3" t="s">
         <v>25</v>
       </c>
       <c r="F38" s="10">
-        <v>43402</v>
+        <v>43403</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
     </row>
     <row r="39" spans="1:8" ht="30" customHeight="1">
       <c r="A39" s="13"/>
-      <c r="B39" s="14" t="s">
-        <v>30</v>
-      </c>
+      <c r="B39" s="15"/>
       <c r="C39" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="3" t="s">
@@ -1504,125 +1502,76 @@
       <c r="A40" s="13"/>
       <c r="B40" s="15"/>
       <c r="C40" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="3" t="s">
         <v>25</v>
       </c>
       <c r="F40" s="10">
-        <v>43403</v>
+        <v>43404</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
     </row>
     <row r="41" spans="1:8" ht="30" customHeight="1">
       <c r="A41" s="13"/>
-      <c r="B41" s="15"/>
+      <c r="B41" s="16"/>
       <c r="C41" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="3" t="s">
         <v>25</v>
       </c>
       <c r="F41" s="10">
-        <v>43403</v>
+        <v>43404</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
     </row>
     <row r="42" spans="1:8" ht="30" customHeight="1">
       <c r="A42" s="13"/>
-      <c r="B42" s="15"/>
+      <c r="B42" s="8" t="s">
+        <v>56</v>
+      </c>
       <c r="C42" s="3" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="3" t="s">
         <v>25</v>
       </c>
       <c r="F42" s="10">
-        <v>43403</v>
+        <v>43395</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
     </row>
     <row r="43" spans="1:8" ht="30" customHeight="1">
       <c r="A43" s="13"/>
-      <c r="B43" s="15"/>
+      <c r="B43" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="C43" s="3" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="3" t="s">
         <v>25</v>
       </c>
       <c r="F43" s="10">
-        <v>43404</v>
+        <v>43395</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
     </row>
-    <row r="44" spans="1:8" ht="30" customHeight="1">
-      <c r="A44" s="13"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F44" s="10">
-        <v>43404</v>
-      </c>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-    </row>
-    <row r="45" spans="1:8" ht="30" customHeight="1">
-      <c r="A45" s="13"/>
-      <c r="B45" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D45" s="2"/>
-      <c r="E45" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F45" s="10">
-        <v>43395</v>
-      </c>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-    </row>
-    <row r="46" spans="1:8" ht="30" customHeight="1">
-      <c r="A46" s="13"/>
-      <c r="B46" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D46" s="2"/>
-      <c r="E46" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F46" s="10">
-        <v>43395</v>
-      </c>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-    </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A2:A46"/>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A43"/>
     <mergeCell ref="B2:B33"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B44"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B41"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1633,8 +1582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H50"/>
+    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C40" sqref="A38:XFD40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2495,8 +2444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C36" sqref="A34:XFD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/DOC/开发计划/SAAS项目开发计划.xlsx
+++ b/DOC/开发计划/SAAS项目开发计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="20730" windowHeight="11670" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="20730" windowHeight="11670"/>
   </bookViews>
   <sheets>
     <sheet name="原型开发计划" sheetId="15" r:id="rId1"/>
@@ -335,11 +335,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>产品原型设计
-（10/22-10/31）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>APP界面开发
 （10/24-11/19）</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -347,6 +342,11 @@
   <si>
     <t>接口联调及测试
 （11/14-11/31）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品原型设计
+（10/22-11/19）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -840,8 +840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -884,7 +884,7 @@
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1">
       <c r="A2" s="12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>8</v>
@@ -1582,7 +1582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C40" sqref="A38:XFD40"/>
     </sheetView>
   </sheetViews>
@@ -1626,7 +1626,7 @@
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1">
       <c r="A2" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>59</v>
@@ -2444,8 +2444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C36" sqref="A34:XFD36"/>
+    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2488,7 +2488,7 @@
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1">
       <c r="A2" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>65</v>
